--- a/Consolidation_SBIN_Result.xlsx
+++ b/Consolidation_SBIN_Result.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="84">
   <si>
     <t>Quantity</t>
   </si>
@@ -46,331 +46,226 @@
     <t>IsActive</t>
   </si>
   <si>
-    <t>2004-07-21</t>
-  </si>
-  <si>
-    <t>2004-12-08</t>
-  </si>
-  <si>
-    <t>2005-09-14</t>
-  </si>
-  <si>
-    <t>2005-09-30</t>
-  </si>
-  <si>
-    <t>2005-11-17</t>
-  </si>
-  <si>
-    <t>2005-11-28</t>
-  </si>
-  <si>
-    <t>2006-07-05</t>
-  </si>
-  <si>
-    <t>2006-07-28</t>
-  </si>
-  <si>
-    <t>2006-08-02</t>
-  </si>
-  <si>
-    <t>2006-11-01</t>
-  </si>
-  <si>
-    <t>2007-04-19</t>
-  </si>
-  <si>
-    <t>2007-06-01</t>
-  </si>
-  <si>
-    <t>2007-11-15</t>
-  </si>
-  <si>
-    <t>2007-12-07</t>
-  </si>
-  <si>
-    <t>2008-01-04</t>
-  </si>
-  <si>
-    <t>2008-04-21</t>
-  </si>
-  <si>
-    <t>2008-07-18</t>
-  </si>
-  <si>
-    <t>2009-03-24</t>
-  </si>
-  <si>
-    <t>2009-05-18</t>
-  </si>
-  <si>
-    <t>2009-05-19</t>
-  </si>
-  <si>
-    <t>2010-06-11</t>
-  </si>
-  <si>
-    <t>2010-07-12</t>
-  </si>
-  <si>
-    <t>2010-08-13</t>
-  </si>
-  <si>
-    <t>2010-10-01</t>
-  </si>
-  <si>
-    <t>2010-11-04</t>
-  </si>
-  <si>
-    <t>2011-01-03</t>
-  </si>
-  <si>
-    <t>2011-01-04</t>
-  </si>
-  <si>
-    <t>2011-02-15</t>
-  </si>
-  <si>
-    <t>2011-06-28</t>
-  </si>
-  <si>
-    <t>2011-10-24</t>
-  </si>
-  <si>
-    <t>2011-11-08</t>
-  </si>
-  <si>
-    <t>2011-12-05</t>
-  </si>
-  <si>
-    <t>2012-01-11</t>
-  </si>
-  <si>
-    <t>2012-02-03</t>
-  </si>
-  <si>
-    <t>2013-09-10</t>
-  </si>
-  <si>
-    <t>2013-09-11</t>
-  </si>
-  <si>
-    <t>2014-05-12</t>
-  </si>
-  <si>
-    <t>2014-05-19</t>
-  </si>
-  <si>
-    <t>2014-11-18</t>
-  </si>
-  <si>
-    <t>2015-04-15</t>
-  </si>
-  <si>
-    <t>2015-05-18</t>
-  </si>
-  <si>
-    <t>2015-05-22</t>
-  </si>
-  <si>
-    <t>2015-07-02</t>
-  </si>
-  <si>
-    <t>2015-10-15</t>
+    <t>2014-05-09</t>
+  </si>
+  <si>
+    <t>2014-05-16</t>
+  </si>
+  <si>
+    <t>2014-10-22</t>
+  </si>
+  <si>
+    <t>2014-11-28</t>
+  </si>
+  <si>
+    <t>2015-09-18</t>
   </si>
   <si>
     <t>2016-03-02</t>
   </si>
   <si>
-    <t>2016-03-03</t>
-  </si>
-  <si>
-    <t>2016-05-27</t>
-  </si>
-  <si>
-    <t>2016-09-07</t>
-  </si>
-  <si>
-    <t>2016-10-05</t>
+    <t>2016-08-31</t>
+  </si>
+  <si>
+    <t>2016-10-24</t>
   </si>
   <si>
     <t>2016-11-10</t>
   </si>
   <si>
-    <t>2017-01-16</t>
-  </si>
-  <si>
-    <t>2017-04-03</t>
-  </si>
-  <si>
-    <t>2017-05-04</t>
-  </si>
-  <si>
-    <t>2017-07-10</t>
-  </si>
-  <si>
-    <t>2017-07-28</t>
-  </si>
-  <si>
-    <t>2017-10-25</t>
+    <t>2017-01-10</t>
+  </si>
+  <si>
+    <t>2017-01-27</t>
+  </si>
+  <si>
+    <t>2017-04-12</t>
+  </si>
+  <si>
+    <t>2017-05-25</t>
+  </si>
+  <si>
+    <t>2017-11-01</t>
+  </si>
+  <si>
+    <t>2018-01-09</t>
   </si>
   <si>
     <t>2018-04-09</t>
   </si>
   <si>
-    <t>2019-05-23</t>
-  </si>
-  <si>
-    <t>2019-06-26</t>
-  </si>
-  <si>
-    <t>2019-09-13</t>
-  </si>
-  <si>
-    <t>2019-10-25</t>
+    <t>2019-03-14</t>
+  </si>
+  <si>
+    <t>2019-09-20</t>
+  </si>
+  <si>
+    <t>2020-04-30</t>
   </si>
   <si>
     <t>2020-06-03</t>
   </si>
   <si>
-    <t>2020-12-07</t>
-  </si>
-  <si>
-    <t>2020-12-29</t>
-  </si>
-  <si>
-    <t>2021-01-13</t>
-  </si>
-  <si>
-    <t>2021-02-01</t>
-  </si>
-  <si>
-    <t>2021-06-02</t>
-  </si>
-  <si>
-    <t>2024-02-07</t>
-  </si>
-  <si>
-    <t>2005-10-27</t>
-  </si>
-  <si>
-    <t>2005-11-22</t>
-  </si>
-  <si>
-    <t>2006-05-22</t>
-  </si>
-  <si>
-    <t>2006-07-17</t>
-  </si>
-  <si>
-    <t>2007-02-22</t>
-  </si>
-  <si>
-    <t>2007-11-02</t>
-  </si>
-  <si>
-    <t>2007-11-16</t>
-  </si>
-  <si>
-    <t>2007-12-17</t>
-  </si>
-  <si>
-    <t>2008-01-07</t>
-  </si>
-  <si>
-    <t>2008-05-26</t>
-  </si>
-  <si>
-    <t>2009-03-04</t>
-  </si>
-  <si>
-    <t>2010-06-25</t>
-  </si>
-  <si>
-    <t>2010-10-15</t>
-  </si>
-  <si>
-    <t>2010-11-12</t>
-  </si>
-  <si>
-    <t>2011-01-05</t>
-  </si>
-  <si>
-    <t>2011-05-17</t>
-  </si>
-  <si>
-    <t>2011-08-18</t>
-  </si>
-  <si>
-    <t>2011-10-25</t>
-  </si>
-  <si>
-    <t>2011-11-11</t>
-  </si>
-  <si>
-    <t>2011-12-09</t>
-  </si>
-  <si>
-    <t>2013-07-31</t>
-  </si>
-  <si>
-    <t>2015-03-23</t>
-  </si>
-  <si>
-    <t>2015-04-22</t>
-  </si>
-  <si>
-    <t>2015-06-03</t>
+    <t>2020-06-23</t>
+  </si>
+  <si>
+    <t>2020-06-24</t>
+  </si>
+  <si>
+    <t>2020-07-08</t>
+  </si>
+  <si>
+    <t>2020-07-22</t>
+  </si>
+  <si>
+    <t>2020-08-24</t>
+  </si>
+  <si>
+    <t>2020-10-07</t>
+  </si>
+  <si>
+    <t>2020-10-21</t>
+  </si>
+  <si>
+    <t>2020-11-02</t>
+  </si>
+  <si>
+    <t>2020-12-09</t>
+  </si>
+  <si>
+    <t>2021-02-05</t>
+  </si>
+  <si>
+    <t>2021-04-29</t>
+  </si>
+  <si>
+    <t>2021-05-24</t>
+  </si>
+  <si>
+    <t>2021-10-14</t>
+  </si>
+  <si>
+    <t>2021-10-25</t>
+  </si>
+  <si>
+    <t>2022-01-06</t>
+  </si>
+  <si>
+    <t>2022-02-03</t>
+  </si>
+  <si>
+    <t>2022-04-04</t>
+  </si>
+  <si>
+    <t>2022-05-30</t>
+  </si>
+  <si>
+    <t>2022-07-05</t>
+  </si>
+  <si>
+    <t>2022-09-05</t>
+  </si>
+  <si>
+    <t>2022-10-19</t>
+  </si>
+  <si>
+    <t>2023-04-05</t>
+  </si>
+  <si>
+    <t>2023-05-15</t>
+  </si>
+  <si>
+    <t>2023-11-13</t>
+  </si>
+  <si>
+    <t>2023-12-06</t>
+  </si>
+  <si>
+    <t>2024-02-20</t>
   </si>
   <si>
     <t>2015-08-24</t>
   </si>
   <si>
-    <t>2015-12-10</t>
-  </si>
-  <si>
-    <t>2016-05-24</t>
-  </si>
-  <si>
-    <t>2016-09-12</t>
-  </si>
-  <si>
-    <t>2016-11-04</t>
-  </si>
-  <si>
-    <t>2016-11-21</t>
-  </si>
-  <si>
-    <t>2017-04-07</t>
-  </si>
-  <si>
-    <t>2017-06-27</t>
-  </si>
-  <si>
-    <t>2017-07-11</t>
-  </si>
-  <si>
-    <t>2017-09-27</t>
-  </si>
-  <si>
-    <t>2018-03-07</t>
-  </si>
-  <si>
-    <t>2019-06-06</t>
-  </si>
-  <si>
-    <t>2019-07-30</t>
-  </si>
-  <si>
-    <t>2019-10-01</t>
-  </si>
-  <si>
-    <t>2020-03-11</t>
-  </si>
-  <si>
-    <t>2020-12-21</t>
-  </si>
-  <si>
-    <t>2021-01-22</t>
+    <t>2016-01-12</t>
+  </si>
+  <si>
+    <t>2016-09-29</t>
+  </si>
+  <si>
+    <t>2016-11-09</t>
+  </si>
+  <si>
+    <t>2016-11-18</t>
+  </si>
+  <si>
+    <t>2017-12-18</t>
+  </si>
+  <si>
+    <t>2018-03-06</t>
+  </si>
+  <si>
+    <t>2019-08-05</t>
+  </si>
+  <si>
+    <t>2020-03-09</t>
+  </si>
+  <si>
+    <t>2020-05-04</t>
+  </si>
+  <si>
+    <t>2020-06-12</t>
+  </si>
+  <si>
+    <t>2020-06-25</t>
+  </si>
+  <si>
+    <t>2020-07-13</t>
+  </si>
+  <si>
+    <t>2020-07-24</t>
+  </si>
+  <si>
+    <t>2020-09-22</t>
+  </si>
+  <si>
+    <t>2020-10-29</t>
+  </si>
+  <si>
+    <t>2021-03-17</t>
+  </si>
+  <si>
+    <t>2021-04-30</t>
+  </si>
+  <si>
+    <t>2021-10-28</t>
+  </si>
+  <si>
+    <t>2022-01-24</t>
+  </si>
+  <si>
+    <t>2022-02-07</t>
+  </si>
+  <si>
+    <t>2022-04-19</t>
+  </si>
+  <si>
+    <t>2022-06-10</t>
+  </si>
+  <si>
+    <t>2022-09-28</t>
+  </si>
+  <si>
+    <t>2023-03-14</t>
+  </si>
+  <si>
+    <t>2023-10-25</t>
+  </si>
+  <si>
+    <t>2023-12-05</t>
+  </si>
+  <si>
+    <t>2024-01-18</t>
   </si>
 </sst>
 </file>
@@ -728,7 +623,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K69"/>
+  <dimension ref="A1:K47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -771,31 +666,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>350</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>42.5</v>
+        <v>13281.85</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
       </c>
       <c r="E2">
-        <v>36.75</v>
+        <v>12514.65</v>
       </c>
       <c r="F2">
-        <v>59.55</v>
+        <v>15583.3</v>
       </c>
       <c r="G2">
-        <v>59.55</v>
+        <v>15583.3</v>
       </c>
       <c r="H2" t="s">
         <v>11</v>
       </c>
       <c r="I2">
-        <v>5853.114000000003</v>
+        <v>4417.681580000004</v>
       </c>
       <c r="J2">
-        <v>39.34866554621851</v>
+        <v>16.630520522367</v>
       </c>
       <c r="K2" t="b">
         <v>0</v>
@@ -806,31 +701,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>217</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>55.85</v>
+        <v>14690.25</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
       </c>
       <c r="E3">
-        <v>46.05</v>
+        <v>14080.4</v>
       </c>
       <c r="F3">
-        <v>85.05000000000001</v>
+        <v>16519.65</v>
       </c>
       <c r="G3">
-        <v>85.05000000000001</v>
+        <v>16570.4</v>
       </c>
       <c r="H3" t="s">
         <v>12</v>
       </c>
       <c r="I3">
-        <v>6238.655730000002</v>
+        <v>5345.442810000008</v>
       </c>
       <c r="J3">
-        <v>51.47639315315465</v>
+        <v>12.12923040792364</v>
       </c>
       <c r="K3" t="b">
         <v>0</v>
@@ -841,31 +736,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>915</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>83.10000000000001</v>
+        <v>16586.95</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
       </c>
       <c r="E4">
-        <v>80.60000000000001</v>
+        <v>15971.25</v>
       </c>
       <c r="F4">
-        <v>90.40000000000001</v>
+        <v>18434</v>
       </c>
       <c r="G4">
-        <v>90.40000000000001</v>
+        <v>18434</v>
       </c>
       <c r="H4" t="s">
         <v>13</v>
       </c>
       <c r="I4">
-        <v>6185.05829999999</v>
+        <v>5210.983350000002</v>
       </c>
       <c r="J4">
-        <v>8.134327987216651</v>
+        <v>10.47205453684976</v>
       </c>
       <c r="K4" t="b">
         <v>0</v>
@@ -876,31 +771,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>231</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>88.65000000000001</v>
+        <v>18331.4</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
       </c>
       <c r="E5">
-        <v>78.40000000000001</v>
+        <v>17157.6</v>
       </c>
       <c r="F5">
-        <v>119.2</v>
+        <v>21852.65</v>
       </c>
       <c r="G5">
-        <v>78.40000000000001</v>
+        <v>17157.6</v>
       </c>
       <c r="H5" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="I5">
-        <v>-2521.361549999998</v>
+        <v>-1314.772199999999</v>
       </c>
       <c r="J5">
-        <v>-12.31244790178799</v>
+        <v>-7.172241072694935</v>
       </c>
       <c r="K5" t="b">
         <v>0</v>
@@ -911,31 +806,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1129</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>84.7</v>
+        <v>17587.35</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
       </c>
       <c r="E6">
-        <v>82.60000000000001</v>
+        <v>15762</v>
       </c>
       <c r="F6">
-        <v>90.85000000000001</v>
+        <v>23063.4</v>
       </c>
       <c r="G6">
-        <v>82.60000000000001</v>
+        <v>15762</v>
       </c>
       <c r="H6" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="I6">
-        <v>-3050.542299999986</v>
+        <v>-1959.810749999999</v>
       </c>
       <c r="J6">
-        <v>-3.190066226550631</v>
+        <v>-11.14329759742087</v>
       </c>
       <c r="K6" t="b">
         <v>0</v>
@@ -946,31 +841,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>233</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>87.05000000000001</v>
+        <v>14979.85</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
       </c>
       <c r="E7">
-        <v>77.40000000000001</v>
+        <v>13407.05</v>
       </c>
       <c r="F7">
-        <v>116</v>
+        <v>19698.05</v>
       </c>
       <c r="G7">
-        <v>77.40000000000001</v>
+        <v>19698.05</v>
       </c>
       <c r="H7" t="s">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="I7">
-        <v>-2400.931649999999</v>
+        <v>4604.663090000004</v>
       </c>
       <c r="J7">
-        <v>-11.83736666559842</v>
+        <v>30.73904671942645</v>
       </c>
       <c r="K7" t="b">
         <v>0</v>
@@ -981,31 +876,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>233</v>
+        <v>4</v>
       </c>
       <c r="C8">
-        <v>75.95</v>
+        <v>19615.45</v>
       </c>
       <c r="D8" t="s">
         <v>16</v>
       </c>
       <c r="E8">
-        <v>66.5</v>
+        <v>19103.3</v>
       </c>
       <c r="F8">
-        <v>104.3</v>
+        <v>21151.9</v>
       </c>
       <c r="G8">
-        <v>66.5</v>
+        <v>19103.3</v>
       </c>
       <c r="H8" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="I8">
-        <v>-2336.320750000001</v>
+        <v>-2608.735400000005</v>
       </c>
       <c r="J8">
-        <v>-13.20227476287483</v>
+        <v>-3.324847760311394</v>
       </c>
       <c r="K8" t="b">
         <v>0</v>
@@ -1016,31 +911,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1167</v>
+        <v>2</v>
       </c>
       <c r="C9">
-        <v>72.10000000000001</v>
+        <v>19836.3</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
       </c>
       <c r="E9">
-        <v>70.25</v>
+        <v>18824.2</v>
       </c>
       <c r="F9">
-        <v>77.65000000000001</v>
+        <v>22872.6</v>
       </c>
       <c r="G9">
-        <v>77.65000000000001</v>
+        <v>18179.5</v>
       </c>
       <c r="H9" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="I9">
-        <v>5932.405440000002</v>
+        <v>-3599.681000000004</v>
       </c>
       <c r="J9">
-        <v>7.050577710905663</v>
+        <v>-9.073468842475673</v>
       </c>
       <c r="K9" t="b">
         <v>0</v>
@@ -1051,31 +946,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>175</v>
+        <v>2</v>
       </c>
       <c r="C10">
-        <v>77.5</v>
+        <v>19942.6</v>
       </c>
       <c r="D10" t="s">
         <v>18</v>
       </c>
       <c r="E10">
-        <v>64.55</v>
+        <v>18961</v>
       </c>
       <c r="F10">
-        <v>116.3</v>
+        <v>22887.4</v>
       </c>
       <c r="G10">
-        <v>118.52</v>
+        <v>18961</v>
       </c>
       <c r="H10" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="I10">
-        <v>7070.798300000004</v>
+        <v>-2253.469999999994</v>
       </c>
       <c r="J10">
-        <v>52.13491834101386</v>
+        <v>-5.649890184830448</v>
       </c>
       <c r="K10" t="b">
         <v>0</v>
@@ -1086,31 +981,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>144</v>
+        <v>5</v>
       </c>
       <c r="C11">
-        <v>118.6</v>
+        <v>18369.75</v>
       </c>
       <c r="D11" t="s">
         <v>19</v>
       </c>
       <c r="E11">
-        <v>101.9</v>
+        <v>17958.95</v>
       </c>
       <c r="F11">
-        <v>168.65</v>
+        <v>19601.95</v>
       </c>
       <c r="G11">
-        <v>101.9</v>
+        <v>19601.95</v>
       </c>
       <c r="H11" t="s">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="I11">
-        <v>-2534.539200000001</v>
+        <v>5569.144550000012</v>
       </c>
       <c r="J11">
-        <v>-14.84061270376617</v>
+        <v>6.063386328066536</v>
       </c>
       <c r="K11" t="b">
         <v>0</v>
@@ -1121,31 +1016,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>217</v>
+        <v>3</v>
       </c>
       <c r="C12">
-        <v>97.25</v>
+        <v>19607.95</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>86.30000000000001</v>
+        <v>18890.95</v>
       </c>
       <c r="F12">
-        <v>129.9</v>
+        <v>21758.8</v>
       </c>
       <c r="G12">
-        <v>129.9</v>
+        <v>21758.8</v>
       </c>
       <c r="H12" t="s">
         <v>21</v>
       </c>
       <c r="I12">
-        <v>6930.707790000008</v>
+        <v>6065.099070000011</v>
       </c>
       <c r="J12">
-        <v>32.84189776456237</v>
+        <v>10.31061222616338</v>
       </c>
       <c r="K12" t="b">
         <v>0</v>
@@ -1156,31 +1051,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>89</v>
+        <v>4</v>
       </c>
       <c r="C13">
-        <v>128.8</v>
+        <v>21757.4</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>100.9</v>
+        <v>21265.3</v>
       </c>
       <c r="F13">
-        <v>212.45</v>
+        <v>23233.55</v>
       </c>
       <c r="G13">
-        <v>212.45</v>
+        <v>23233.55</v>
       </c>
       <c r="H13" t="s">
-        <v>83</v>
+        <v>22</v>
       </c>
       <c r="I13">
-        <v>7349.844340000003</v>
+        <v>5342.930960000027</v>
       </c>
       <c r="J13">
-        <v>64.11686387745135</v>
+        <v>6.139211210898392</v>
       </c>
       <c r="K13" t="b">
         <v>0</v>
@@ -1191,31 +1086,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>299</v>
+        <v>3</v>
       </c>
       <c r="C14">
-        <v>224.25</v>
+        <v>23001.15</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
       </c>
       <c r="E14">
-        <v>215.35</v>
+        <v>22239.85</v>
       </c>
       <c r="F14">
-        <v>250.75</v>
+        <v>25284.9</v>
       </c>
       <c r="G14">
-        <v>215.35</v>
+        <v>25284.9</v>
       </c>
       <c r="H14" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
       <c r="I14">
-        <v>-3140.133049999982</v>
+        <v>6400.207110000018</v>
       </c>
       <c r="J14">
-        <v>-4.683218383090393</v>
+        <v>9.275198718324978</v>
       </c>
       <c r="K14" t="b">
         <v>0</v>
@@ -1226,31 +1121,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>359</v>
+        <v>4</v>
       </c>
       <c r="C15">
-        <v>228.95</v>
+        <v>25222.45</v>
       </c>
       <c r="D15" t="s">
         <v>23</v>
       </c>
       <c r="E15">
-        <v>221.75</v>
+        <v>24682.35</v>
       </c>
       <c r="F15">
-        <v>250.5</v>
+        <v>26842.6</v>
       </c>
       <c r="G15">
-        <v>221.75</v>
+        <v>24682.35</v>
       </c>
       <c r="H15" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="I15">
-        <v>-3169.981749999992</v>
+        <v>-2877.30779999998</v>
       </c>
       <c r="J15">
-        <v>-3.856751574494427</v>
+        <v>-2.851931315157707</v>
       </c>
       <c r="K15" t="b">
         <v>0</v>
@@ -1261,31 +1156,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>178</v>
+        <v>2</v>
       </c>
       <c r="C16">
-        <v>243.05</v>
+        <v>25805.85</v>
       </c>
       <c r="D16" t="s">
         <v>24</v>
       </c>
       <c r="E16">
-        <v>228.9</v>
+        <v>24616.95</v>
       </c>
       <c r="F16">
-        <v>285.45</v>
+        <v>29372.55</v>
       </c>
       <c r="G16">
-        <v>225.15</v>
+        <v>24616.95</v>
       </c>
       <c r="H16" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="I16">
-        <v>-3497.667899999993</v>
+        <v>-2749.326299999993</v>
       </c>
       <c r="J16">
-        <v>-8.084682025476779</v>
+        <v>-5.326943890629436</v>
       </c>
       <c r="K16" t="b">
         <v>0</v>
@@ -1296,31 +1191,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>151</v>
+        <v>1</v>
       </c>
       <c r="C17">
-        <v>172.35</v>
+        <v>24964.7</v>
       </c>
       <c r="D17" t="s">
         <v>25</v>
       </c>
       <c r="E17">
-        <v>156.1</v>
+        <v>23605.35</v>
       </c>
       <c r="F17">
-        <v>220.95</v>
+        <v>29042.6</v>
       </c>
       <c r="G17">
-        <v>156.1</v>
+        <v>29042.6</v>
       </c>
       <c r="H17" t="s">
-        <v>87</v>
+        <v>26</v>
       </c>
       <c r="I17">
-        <v>-2646.016449999996</v>
+        <v>3903.225380000003</v>
       </c>
       <c r="J17">
-        <v>-10.16726878348961</v>
+        <v>15.63497810909005</v>
       </c>
       <c r="K17" t="b">
         <v>0</v>
@@ -1331,31 +1226,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>76</v>
+        <v>2</v>
       </c>
       <c r="C18">
-        <v>128</v>
+        <v>29057.9</v>
       </c>
       <c r="D18" t="s">
         <v>26</v>
       </c>
       <c r="E18">
-        <v>96.55000000000001</v>
+        <v>27918.3</v>
       </c>
       <c r="F18">
-        <v>222.15</v>
+        <v>32476.55</v>
       </c>
       <c r="G18">
-        <v>96.55000000000001</v>
+        <v>27701.95</v>
       </c>
       <c r="H18" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="I18">
-        <v>-2468.515599999998</v>
+        <v>-3128.286799999994</v>
       </c>
       <c r="J18">
-        <v>-25.37536595394735</v>
+        <v>-5.382850791006911</v>
       </c>
       <c r="K18" t="b">
         <v>0</v>
@@ -1366,31 +1261,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>143</v>
+        <v>1</v>
       </c>
       <c r="C19">
-        <v>105.6</v>
+        <v>28305.95</v>
       </c>
       <c r="D19" t="s">
         <v>27</v>
       </c>
       <c r="E19">
-        <v>89.10000000000001</v>
+        <v>26641</v>
       </c>
       <c r="F19">
-        <v>154.9</v>
+        <v>33300.8</v>
       </c>
       <c r="G19">
-        <v>154.9</v>
+        <v>26641</v>
       </c>
       <c r="H19" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="I19">
-        <v>6932.815160000002</v>
+        <v>-1874.761749999998</v>
       </c>
       <c r="J19">
-        <v>45.91025084763722</v>
+        <v>-6.623207311536966</v>
       </c>
       <c r="K19" t="b">
         <v>0</v>
@@ -1401,31 +1296,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>285</v>
+        <v>2</v>
       </c>
       <c r="C20">
-        <v>144.6</v>
+        <v>21610.75</v>
       </c>
       <c r="D20" t="s">
         <v>28</v>
       </c>
       <c r="E20">
-        <v>135.8</v>
+        <v>20699.65</v>
       </c>
       <c r="F20">
-        <v>170.8</v>
+        <v>24343.9</v>
       </c>
       <c r="G20">
-        <v>170.8</v>
+        <v>20412.2</v>
       </c>
       <c r="H20" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="I20">
-        <v>7187.531400000007</v>
+        <v>-2709.856299999999</v>
       </c>
       <c r="J20">
-        <v>17.44080803668925</v>
+        <v>-6.269695174855106</v>
       </c>
       <c r="K20" t="b">
         <v>0</v>
@@ -1436,31 +1331,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>90</v>
+        <v>2</v>
       </c>
       <c r="C21">
-        <v>164.95</v>
+        <v>20987.55</v>
       </c>
       <c r="D21" t="s">
         <v>29</v>
       </c>
       <c r="E21">
-        <v>135.8</v>
+        <v>19820.75</v>
       </c>
       <c r="F21">
-        <v>252.4</v>
+        <v>24487.95</v>
       </c>
       <c r="G21">
-        <v>263.01</v>
+        <v>19431.65</v>
       </c>
       <c r="H21" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="I21">
-        <v>8707.767419999996</v>
+        <v>-3414.402099999999</v>
       </c>
       <c r="J21">
-        <v>58.65593897140544</v>
+        <v>-8.134351317805077</v>
       </c>
       <c r="K21" t="b">
         <v>0</v>
@@ -1471,31 +1366,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>84</v>
+        <v>4</v>
       </c>
       <c r="C22">
-        <v>263.25</v>
+        <v>21881.05</v>
       </c>
       <c r="D22" t="s">
         <v>30</v>
       </c>
       <c r="E22">
-        <v>230.1</v>
+        <v>21371.25</v>
       </c>
       <c r="F22">
-        <v>362.5</v>
+        <v>23410.45</v>
       </c>
       <c r="G22">
-        <v>230.1</v>
+        <v>21371.25</v>
       </c>
       <c r="H22" t="s">
-        <v>89</v>
+        <v>31</v>
       </c>
       <c r="I22">
-        <v>-2948.821799999998</v>
+        <v>-2662.790999999997</v>
       </c>
       <c r="J22">
-        <v>-13.33524080857413</v>
+        <v>-3.042348287673577</v>
       </c>
       <c r="K22" t="b">
         <v>0</v>
@@ -1506,31 +1401,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>182</v>
+        <v>2</v>
       </c>
       <c r="C23">
-        <v>240.5</v>
+        <v>22501.75</v>
       </c>
       <c r="D23" t="s">
         <v>31</v>
       </c>
       <c r="E23">
-        <v>225.35</v>
+        <v>21636.6</v>
       </c>
       <c r="F23">
-        <v>285.75</v>
+        <v>25097</v>
       </c>
       <c r="G23">
-        <v>285.75</v>
+        <v>21112</v>
       </c>
       <c r="H23" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="I23">
-        <v>7939.237200000003</v>
+        <v>-3103.965499999991</v>
       </c>
       <c r="J23">
-        <v>18.13812158735236</v>
+        <v>-6.897164664970482</v>
       </c>
       <c r="K23" t="b">
         <v>0</v>
@@ -1541,31 +1436,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>175</v>
+        <v>3</v>
       </c>
       <c r="C24">
-        <v>278.65</v>
+        <v>22723.6</v>
       </c>
       <c r="D24" t="s">
         <v>32</v>
       </c>
       <c r="E24">
-        <v>262.1</v>
+        <v>22030</v>
       </c>
       <c r="F24">
-        <v>328.3</v>
+        <v>24804.4</v>
       </c>
       <c r="G24">
-        <v>328.3</v>
+        <v>22030</v>
       </c>
       <c r="H24" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="I24">
-        <v>8360.988250000002</v>
+        <v>-2568.833999999988</v>
       </c>
       <c r="J24">
-        <v>17.14590910256082</v>
+        <v>-3.768232146314827</v>
       </c>
       <c r="K24" t="b">
         <v>0</v>
@@ -1576,31 +1471,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>375</v>
+        <v>3</v>
       </c>
       <c r="C25">
-        <v>324.25</v>
+        <v>23182.15</v>
       </c>
       <c r="D25" t="s">
         <v>33</v>
       </c>
       <c r="E25">
-        <v>316</v>
+        <v>22618.95</v>
       </c>
       <c r="F25">
-        <v>348.85</v>
+        <v>24871.7</v>
       </c>
       <c r="G25">
-        <v>316</v>
+        <v>22618.95</v>
       </c>
       <c r="H25" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="I25">
-        <v>-3953.718749999985</v>
+        <v>-2188.045949999985</v>
       </c>
       <c r="J25">
-        <v>-3.251580570547405</v>
+        <v>-3.146164829405361</v>
       </c>
       <c r="K25" t="b">
         <v>0</v>
@@ -1611,31 +1506,31 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>119</v>
+        <v>1</v>
       </c>
       <c r="C26">
-        <v>332.8</v>
+        <v>22462.3</v>
       </c>
       <c r="D26" t="s">
         <v>34</v>
       </c>
       <c r="E26">
-        <v>307.55</v>
+        <v>21031.15</v>
       </c>
       <c r="F26">
-        <v>408.4</v>
+        <v>26755.75</v>
       </c>
       <c r="G26">
-        <v>307.55</v>
+        <v>21031.15</v>
       </c>
       <c r="H26" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="I26">
-        <v>-3290.962899999999</v>
+        <v>-1600.523799999999</v>
       </c>
       <c r="J26">
-        <v>-8.309840871444727</v>
+        <v>-7.125378077935023</v>
       </c>
       <c r="K26" t="b">
         <v>0</v>
@@ -1646,31 +1541,31 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>393</v>
+        <v>3</v>
       </c>
       <c r="C27">
-        <v>283.55</v>
+        <v>22859.7</v>
       </c>
       <c r="D27" t="s">
         <v>35</v>
       </c>
       <c r="E27">
-        <v>276.05</v>
+        <v>22313.2</v>
       </c>
       <c r="F27">
-        <v>305.9</v>
+        <v>24499</v>
       </c>
       <c r="G27">
-        <v>276.05</v>
+        <v>24499</v>
       </c>
       <c r="H27" t="s">
         <v>36</v>
       </c>
       <c r="I27">
-        <v>-3736.65105</v>
+        <v>4471.808099999995</v>
       </c>
       <c r="J27">
-        <v>-3.353206820289648</v>
+        <v>6.520657313962992</v>
       </c>
       <c r="K27" t="b">
         <v>0</v>
@@ -1681,31 +1576,31 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>433</v>
+        <v>3</v>
       </c>
       <c r="C28">
-        <v>283.7</v>
+        <v>24468.6</v>
       </c>
       <c r="D28" t="s">
         <v>36</v>
       </c>
       <c r="E28">
-        <v>277.05</v>
+        <v>23834.45</v>
       </c>
       <c r="F28">
-        <v>303.45</v>
+        <v>26371.05</v>
       </c>
       <c r="G28">
-        <v>272.1</v>
+        <v>23834.45</v>
       </c>
       <c r="H28" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="I28">
-        <v>-5887.649099999981</v>
+        <v>-2427.48569999999</v>
       </c>
       <c r="J28">
-        <v>-4.792859369873994</v>
+        <v>-3.306939914829605</v>
       </c>
       <c r="K28" t="b">
         <v>0</v>
@@ -1716,31 +1611,31 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>104</v>
+        <v>1</v>
       </c>
       <c r="C29">
-        <v>274</v>
+        <v>24848.4</v>
       </c>
       <c r="D29" t="s">
         <v>37</v>
       </c>
       <c r="E29">
-        <v>247.6</v>
+        <v>22970.65</v>
       </c>
       <c r="F29">
-        <v>353</v>
+        <v>30481.45</v>
       </c>
       <c r="G29">
-        <v>247.6</v>
+        <v>30481.45</v>
       </c>
       <c r="H29" t="s">
-        <v>93</v>
+        <v>38</v>
       </c>
       <c r="I29">
-        <v>-2954.580799999996</v>
+        <v>5457.23026</v>
       </c>
       <c r="J29">
-        <v>-10.36840539023019</v>
+        <v>21.96209920960706</v>
       </c>
       <c r="K29" t="b">
         <v>0</v>
@@ -1751,31 +1646,31 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>122</v>
+        <v>1</v>
       </c>
       <c r="C30">
-        <v>233.9</v>
+        <v>30384.55</v>
       </c>
       <c r="D30" t="s">
         <v>38</v>
       </c>
       <c r="E30">
-        <v>212</v>
+        <v>28431.5</v>
       </c>
       <c r="F30">
-        <v>299.6</v>
+        <v>36243.7</v>
       </c>
       <c r="G30">
-        <v>212</v>
+        <v>36243.7</v>
       </c>
       <c r="H30" t="s">
-        <v>94</v>
+        <v>39</v>
       </c>
       <c r="I30">
-        <v>-2881.206999999995</v>
+        <v>5648.734810000002</v>
       </c>
       <c r="J30">
-        <v>-10.09681522859003</v>
+        <v>18.59081279795159</v>
       </c>
       <c r="K30" t="b">
         <v>0</v>
@@ -1786,31 +1681,31 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>486</v>
+        <v>1</v>
       </c>
       <c r="C31">
-        <v>197.65</v>
+        <v>35670.5</v>
       </c>
       <c r="D31" t="s">
         <v>39</v>
       </c>
       <c r="E31">
-        <v>192.25</v>
+        <v>34209.9</v>
       </c>
       <c r="F31">
-        <v>213.85</v>
+        <v>40052.10000000001</v>
       </c>
       <c r="G31">
-        <v>191</v>
+        <v>34209.9</v>
       </c>
       <c r="H31" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="I31">
-        <v>-3912.841499999995</v>
+        <v>-1722.372299999995</v>
       </c>
       <c r="J31">
-        <v>-4.073419781194461</v>
+        <v>-4.828562257327471</v>
       </c>
       <c r="K31" t="b">
         <v>0</v>
@@ -1821,31 +1716,31 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>155</v>
+        <v>2</v>
       </c>
       <c r="C32">
-        <v>199.05</v>
+        <v>33935.5</v>
       </c>
       <c r="D32" t="s">
         <v>40</v>
       </c>
       <c r="E32">
-        <v>182.65</v>
+        <v>33023.8</v>
       </c>
       <c r="F32">
-        <v>248.2</v>
+        <v>36670.4</v>
       </c>
       <c r="G32">
-        <v>182.65</v>
+        <v>33023.8</v>
       </c>
       <c r="H32" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="I32">
-        <v>-2767.885249999999</v>
+        <v>-2309.850199999986</v>
       </c>
       <c r="J32">
-        <v>-8.971275656140859</v>
+        <v>-3.403294779802841</v>
       </c>
       <c r="K32" t="b">
         <v>0</v>
@@ -1856,31 +1751,31 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>422</v>
+        <v>1</v>
       </c>
       <c r="C33">
-        <v>188.65</v>
+        <v>34904.15</v>
       </c>
       <c r="D33" t="s">
         <v>41</v>
       </c>
       <c r="E33">
-        <v>182.75</v>
+        <v>33601.25</v>
       </c>
       <c r="F33">
-        <v>206.35</v>
+        <v>38812.8</v>
       </c>
       <c r="G33">
-        <v>182.75</v>
+        <v>38812.8</v>
       </c>
       <c r="H33" t="s">
-        <v>97</v>
+        <v>42</v>
       </c>
       <c r="I33">
-        <v>-3057.092499999984</v>
+        <v>3672.553890000003</v>
       </c>
       <c r="J33">
-        <v>-3.840071573653138</v>
+        <v>10.52182588603362</v>
       </c>
       <c r="K33" t="b">
         <v>0</v>
@@ -1891,31 +1786,31 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>184</v>
+        <v>2</v>
       </c>
       <c r="C34">
-        <v>172</v>
+        <v>38723.25</v>
       </c>
       <c r="D34" t="s">
         <v>42</v>
       </c>
       <c r="E34">
-        <v>158.8</v>
+        <v>37837.4</v>
       </c>
       <c r="F34">
-        <v>211.4</v>
+        <v>41380.60000000001</v>
       </c>
       <c r="G34">
-        <v>211.4</v>
+        <v>41380.60000000001</v>
       </c>
       <c r="H34" t="s">
         <v>43</v>
       </c>
       <c r="I34">
-        <v>7029.68288</v>
+        <v>4813.154060000015</v>
       </c>
       <c r="J34">
-        <v>22.21209201213347</v>
+        <v>6.214811592518727</v>
       </c>
       <c r="K34" t="b">
         <v>0</v>
@@ -1926,31 +1821,31 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>64</v>
+        <v>1</v>
       </c>
       <c r="C35">
-        <v>209</v>
+        <v>41002.15</v>
       </c>
       <c r="D35" t="s">
         <v>43</v>
       </c>
       <c r="E35">
-        <v>169.3</v>
+        <v>39396.35000000001</v>
       </c>
       <c r="F35">
-        <v>327.95</v>
+        <v>45819.35000000001</v>
       </c>
       <c r="G35">
-        <v>169.3</v>
+        <v>39396.35000000001</v>
       </c>
       <c r="H35" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="I35">
-        <v>-2644.350399999999</v>
+        <v>-1904.603449999988</v>
       </c>
       <c r="J35">
-        <v>-19.76936602870813</v>
+        <v>-4.645130682171515</v>
       </c>
       <c r="K35" t="b">
         <v>0</v>
@@ -1961,31 +1856,31 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>572</v>
+        <v>2</v>
       </c>
       <c r="C36">
-        <v>166.15</v>
+        <v>37279.8</v>
       </c>
       <c r="D36" t="s">
         <v>44</v>
       </c>
       <c r="E36">
-        <v>161.75</v>
+        <v>36416.1</v>
       </c>
       <c r="F36">
-        <v>179.3</v>
+        <v>39870.85000000001</v>
       </c>
       <c r="G36">
-        <v>161.75</v>
+        <v>36416.1</v>
       </c>
       <c r="H36" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="I36">
-        <v>-3192.030999999988</v>
+        <v>-2260.862399999998</v>
       </c>
       <c r="J36">
-        <v>-3.358696224028742</v>
+        <v>-3.032288799832614</v>
       </c>
       <c r="K36" t="b">
         <v>0</v>
@@ -1996,31 +1891,31 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>123</v>
+        <v>1</v>
       </c>
       <c r="C37">
-        <v>165.25</v>
+        <v>39294.95</v>
       </c>
       <c r="D37" t="s">
         <v>45</v>
       </c>
       <c r="E37">
-        <v>145.25</v>
+        <v>38078.45</v>
       </c>
       <c r="F37">
-        <v>225.1</v>
+        <v>42944.3</v>
       </c>
       <c r="G37">
-        <v>225.1</v>
+        <v>38078.45</v>
       </c>
       <c r="H37" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="I37">
-        <v>7211.696490000006</v>
+        <v>-1504.131649999996</v>
       </c>
       <c r="J37">
-        <v>35.48059230286708</v>
+        <v>-3.827798864739605</v>
       </c>
       <c r="K37" t="b">
         <v>0</v>
@@ -2031,31 +1926,31 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>241</v>
+        <v>1</v>
       </c>
       <c r="C38">
-        <v>219</v>
+        <v>37862.7</v>
       </c>
       <c r="D38" t="s">
         <v>46</v>
       </c>
       <c r="E38">
-        <v>208.2</v>
+        <v>36091</v>
       </c>
       <c r="F38">
-        <v>251.2</v>
+        <v>43177.8</v>
       </c>
       <c r="G38">
-        <v>251.2</v>
+        <v>36091</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="I38">
-        <v>7408.657960000011</v>
+        <v>-2048.195500000002</v>
       </c>
       <c r="J38">
-        <v>14.03713211694047</v>
+        <v>-5.409533657134862</v>
       </c>
       <c r="K38" t="b">
         <v>0</v>
@@ -2066,31 +1961,31 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>158</v>
+        <v>1</v>
       </c>
       <c r="C39">
-        <v>245.1</v>
+        <v>35994.75</v>
       </c>
       <c r="D39" t="s">
         <v>47</v>
       </c>
       <c r="E39">
-        <v>227.75</v>
+        <v>34517.65</v>
       </c>
       <c r="F39">
-        <v>297.15</v>
+        <v>40425.85000000001</v>
       </c>
       <c r="G39">
-        <v>297.15</v>
+        <v>34517.65</v>
       </c>
       <c r="H39" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="I39">
-        <v>7958.93136000001</v>
+        <v>-1741.109049999999</v>
       </c>
       <c r="J39">
-        <v>20.5520127666827</v>
+        <v>-4.837119441029592</v>
       </c>
       <c r="K39" t="b">
         <v>0</v>
@@ -2101,31 +1996,31 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>139</v>
+        <v>1</v>
       </c>
       <c r="C40">
-        <v>295.95</v>
+        <v>34181.6</v>
       </c>
       <c r="D40" t="s">
         <v>48</v>
       </c>
       <c r="E40">
-        <v>275.05</v>
+        <v>32290.25</v>
       </c>
       <c r="F40">
-        <v>358.45</v>
+        <v>39855.45</v>
       </c>
       <c r="G40">
-        <v>275.05</v>
+        <v>39855.45</v>
       </c>
       <c r="H40" t="s">
-        <v>99</v>
+        <v>49</v>
       </c>
       <c r="I40">
-        <v>-3202.249149999989</v>
+        <v>5440.115460000008</v>
       </c>
       <c r="J40">
-        <v>-7.784343189411951</v>
+        <v>15.91533298616802</v>
       </c>
       <c r="K40" t="b">
         <v>0</v>
@@ -2136,31 +2031,31 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>469</v>
+        <v>1</v>
       </c>
       <c r="C41">
-        <v>287.65</v>
+        <v>39798.85000000001</v>
       </c>
       <c r="D41" t="s">
         <v>49</v>
       </c>
       <c r="E41">
-        <v>281.6</v>
+        <v>37943.5</v>
       </c>
       <c r="F41">
-        <v>305.75</v>
+        <v>45364.9</v>
       </c>
       <c r="G41">
-        <v>281.6</v>
+        <v>37943.5</v>
       </c>
       <c r="H41" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="I41">
-        <v>-3791.130049999949</v>
+        <v>-2145.231250000004</v>
       </c>
       <c r="J41">
-        <v>-2.810162677709228</v>
+        <v>-5.390184012854653</v>
       </c>
       <c r="K41" t="b">
         <v>0</v>
@@ -2171,31 +2066,31 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>327</v>
+        <v>1</v>
       </c>
       <c r="C42">
-        <v>290.15</v>
+        <v>40597.15</v>
       </c>
       <c r="D42" t="s">
         <v>50</v>
       </c>
       <c r="E42">
-        <v>281.65</v>
+        <v>39175.2</v>
       </c>
       <c r="F42">
-        <v>315.5</v>
+        <v>44862.85000000001</v>
       </c>
       <c r="G42">
-        <v>281.65</v>
+        <v>39175.2</v>
       </c>
       <c r="H42" t="s">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="I42">
-        <v>-3453.094349999985</v>
+        <v>-1718.286149999993</v>
       </c>
       <c r="J42">
-        <v>-3.639469777574695</v>
+        <v>-4.232529007578099</v>
       </c>
       <c r="K42" t="b">
         <v>0</v>
@@ -2206,31 +2101,31 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>76</v>
+        <v>2</v>
       </c>
       <c r="C43">
-        <v>295.05</v>
+        <v>41013.25</v>
       </c>
       <c r="D43" t="s">
         <v>51</v>
       </c>
       <c r="E43">
-        <v>259.6</v>
+        <v>40022.2</v>
       </c>
       <c r="F43">
-        <v>401.2</v>
+        <v>43986.2</v>
       </c>
       <c r="G43">
-        <v>259.6</v>
+        <v>43986.2</v>
       </c>
       <c r="H43" t="s">
-        <v>101</v>
+        <v>52</v>
       </c>
       <c r="I43">
-        <v>-2860.778199999997</v>
+        <v>5415.200620000018</v>
       </c>
       <c r="J43">
-        <v>-12.75777611288005</v>
+        <v>6.601769696378631</v>
       </c>
       <c r="K43" t="b">
         <v>0</v>
@@ -2241,31 +2136,31 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>116</v>
+        <v>2</v>
       </c>
       <c r="C44">
-        <v>271.45</v>
+        <v>43864.9</v>
       </c>
       <c r="D44" t="s">
         <v>52</v>
       </c>
       <c r="E44">
-        <v>248.8</v>
+        <v>42898.7</v>
       </c>
       <c r="F44">
-        <v>339.2</v>
+        <v>46763.3</v>
       </c>
       <c r="G44">
-        <v>248.8</v>
+        <v>42898.7</v>
       </c>
       <c r="H44" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="I44">
-        <v>-2857.56259999999</v>
+        <v>-2557.643799999991</v>
       </c>
       <c r="J44">
-        <v>-9.075026835449441</v>
+        <v>-2.915364904513621</v>
       </c>
       <c r="K44" t="b">
         <v>0</v>
@@ -2276,31 +2171,31 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>157</v>
+        <v>2</v>
       </c>
       <c r="C45">
-        <v>248.65</v>
+        <v>43959</v>
       </c>
       <c r="D45" t="s">
         <v>53</v>
       </c>
       <c r="E45">
-        <v>232.15</v>
+        <v>43030.5</v>
       </c>
       <c r="F45">
-        <v>297.95</v>
+        <v>46744.3</v>
       </c>
       <c r="G45">
-        <v>232.15</v>
+        <v>46895.9</v>
       </c>
       <c r="H45" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="I45">
-        <v>-2873.585349999994</v>
+        <v>5306.659840000008</v>
       </c>
       <c r="J45">
-        <v>-7.360985884284675</v>
+        <v>6.035919652403384</v>
       </c>
       <c r="K45" t="b">
         <v>0</v>
@@ -2311,31 +2206,31 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>691</v>
+        <v>1</v>
       </c>
       <c r="C46">
-        <v>172.65</v>
+        <v>47304.05</v>
       </c>
       <c r="D46" t="s">
         <v>54</v>
       </c>
       <c r="E46">
-        <v>168.95</v>
+        <v>45554.7</v>
       </c>
       <c r="F46">
-        <v>183.55</v>
+        <v>52551.95</v>
       </c>
       <c r="G46">
-        <v>184</v>
+        <v>45265.3</v>
       </c>
       <c r="H46" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="I46">
-        <v>7078.771450000015</v>
+        <v>-2380.800849999992</v>
       </c>
       <c r="J46">
-        <v>5.933531613064932</v>
+        <v>-5.032974660731993</v>
       </c>
       <c r="K46" t="b">
         <v>0</v>
@@ -2346,803 +2241,33 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>158</v>
+        <v>1</v>
       </c>
       <c r="C47">
-        <v>184.15</v>
+        <v>46939.25</v>
       </c>
       <c r="D47" t="s">
         <v>55</v>
       </c>
       <c r="E47">
-        <v>167.3</v>
+        <v>44633.45</v>
       </c>
       <c r="F47">
-        <v>234.5</v>
+        <v>53856.45</v>
       </c>
       <c r="G47">
-        <v>167.3</v>
+        <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>104</v>
+        <v>55</v>
       </c>
       <c r="I47">
-        <v>-2875.645299999996</v>
+        <v>0</v>
       </c>
       <c r="J47">
-        <v>-9.883403045810882</v>
+        <v>0</v>
       </c>
       <c r="K47" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11">
-      <c r="A48" s="1">
-        <v>46</v>
-      </c>
-      <c r="B48">
-        <v>108</v>
-      </c>
-      <c r="C48">
-        <v>190.45</v>
-      </c>
-      <c r="D48" t="s">
-        <v>56</v>
-      </c>
-      <c r="E48">
-        <v>166.35</v>
-      </c>
-      <c r="F48">
-        <v>262.6</v>
-      </c>
-      <c r="G48">
-        <v>262.9</v>
-      </c>
-      <c r="H48" t="s">
-        <v>57</v>
-      </c>
-      <c r="I48">
-        <v>7672.685159999997</v>
-      </c>
-      <c r="J48">
-        <v>37.30290423266531</v>
-      </c>
-      <c r="K48" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11">
-      <c r="A49" s="1">
-        <v>47</v>
-      </c>
-      <c r="B49">
-        <v>345</v>
-      </c>
-      <c r="C49">
-        <v>263.15</v>
-      </c>
-      <c r="D49" t="s">
-        <v>57</v>
-      </c>
-      <c r="E49">
-        <v>255.15</v>
-      </c>
-      <c r="F49">
-        <v>287.15</v>
-      </c>
-      <c r="G49">
-        <v>255.15</v>
-      </c>
-      <c r="H49" t="s">
-        <v>105</v>
-      </c>
-      <c r="I49">
-        <v>-3404.987250000006</v>
-      </c>
-      <c r="J49">
-        <v>-3.750533255128094</v>
-      </c>
-      <c r="K49" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11">
-      <c r="A50" s="1">
-        <v>48</v>
-      </c>
-      <c r="B50">
-        <v>143</v>
-      </c>
-      <c r="C50">
-        <v>262.25</v>
-      </c>
-      <c r="D50" t="s">
-        <v>58</v>
-      </c>
-      <c r="E50">
-        <v>243.45</v>
-      </c>
-      <c r="F50">
-        <v>318.45</v>
-      </c>
-      <c r="G50">
-        <v>243.45</v>
-      </c>
-      <c r="H50" t="s">
-        <v>106</v>
-      </c>
-      <c r="I50">
-        <v>-2960.535449999988</v>
-      </c>
-      <c r="J50">
-        <v>-7.89439279500287</v>
-      </c>
-      <c r="K50" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11">
-      <c r="A51" s="1">
-        <v>49</v>
-      </c>
-      <c r="B51">
-        <v>346</v>
-      </c>
-      <c r="C51">
-        <v>267.25</v>
-      </c>
-      <c r="D51" t="s">
-        <v>59</v>
-      </c>
-      <c r="E51">
-        <v>259.6</v>
-      </c>
-      <c r="F51">
-        <v>290</v>
-      </c>
-      <c r="G51">
-        <v>259.6</v>
-      </c>
-      <c r="H51" t="s">
-        <v>107</v>
-      </c>
-      <c r="I51">
-        <v>-3303.885699999984</v>
-      </c>
-      <c r="J51">
-        <v>-3.57298507059159</v>
-      </c>
-      <c r="K51" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11">
-      <c r="A52" s="1">
-        <v>50</v>
-      </c>
-      <c r="B52">
-        <v>188</v>
-      </c>
-      <c r="C52">
-        <v>254.7</v>
-      </c>
-      <c r="D52" t="s">
-        <v>60</v>
-      </c>
-      <c r="E52">
-        <v>241.05</v>
-      </c>
-      <c r="F52">
-        <v>295.65</v>
-      </c>
-      <c r="G52">
-        <v>295.65</v>
-      </c>
-      <c r="H52" t="s">
-        <v>61</v>
-      </c>
-      <c r="I52">
-        <v>7377.483359999998</v>
-      </c>
-      <c r="J52">
-        <v>15.40711926421572</v>
-      </c>
-      <c r="K52" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11">
-      <c r="A53" s="1">
-        <v>51</v>
-      </c>
-      <c r="B53">
-        <v>379</v>
-      </c>
-      <c r="C53">
-        <v>295.05</v>
-      </c>
-      <c r="D53" t="s">
-        <v>61</v>
-      </c>
-      <c r="E53">
-        <v>287.85</v>
-      </c>
-      <c r="F53">
-        <v>316.45</v>
-      </c>
-      <c r="G53">
-        <v>287.85</v>
-      </c>
-      <c r="H53" t="s">
-        <v>108</v>
-      </c>
-      <c r="I53">
-        <v>-3521.110049999974</v>
-      </c>
-      <c r="J53">
-        <v>-3.148797775431805</v>
-      </c>
-      <c r="K53" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11">
-      <c r="A54" s="1">
-        <v>52</v>
-      </c>
-      <c r="B54">
-        <v>147</v>
-      </c>
-      <c r="C54">
-        <v>297.15</v>
-      </c>
-      <c r="D54" t="s">
-        <v>62</v>
-      </c>
-      <c r="E54">
-        <v>279.2</v>
-      </c>
-      <c r="F54">
-        <v>350.95</v>
-      </c>
-      <c r="G54">
-        <v>279.2</v>
-      </c>
-      <c r="H54" t="s">
-        <v>109</v>
-      </c>
-      <c r="I54">
-        <v>-2954.140049999995</v>
-      </c>
-      <c r="J54">
-        <v>-6.762978568509672</v>
-      </c>
-      <c r="K54" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11">
-      <c r="A55" s="1">
-        <v>53</v>
-      </c>
-      <c r="B55">
-        <v>251</v>
-      </c>
-      <c r="C55">
-        <v>300.25</v>
-      </c>
-      <c r="D55" t="s">
-        <v>63</v>
-      </c>
-      <c r="E55">
-        <v>289.95</v>
-      </c>
-      <c r="F55">
-        <v>331.1</v>
-      </c>
-      <c r="G55">
-        <v>286.05</v>
-      </c>
-      <c r="H55" t="s">
-        <v>110</v>
-      </c>
-      <c r="I55">
-        <v>-4099.610849999983</v>
-      </c>
-      <c r="J55">
-        <v>-5.43983712112414</v>
-      </c>
-      <c r="K55" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11">
-      <c r="A56" s="1">
-        <v>54</v>
-      </c>
-      <c r="B56">
-        <v>53</v>
-      </c>
-      <c r="C56">
-        <v>300.25</v>
-      </c>
-      <c r="D56" t="s">
-        <v>64</v>
-      </c>
-      <c r="E56">
-        <v>252.95</v>
-      </c>
-      <c r="F56">
-        <v>441.95</v>
-      </c>
-      <c r="G56">
-        <v>252.95</v>
-      </c>
-      <c r="H56" t="s">
-        <v>111</v>
-      </c>
-      <c r="I56">
-        <v>-2628.278949999998</v>
-      </c>
-      <c r="J56">
-        <v>-16.51629271204812</v>
-      </c>
-      <c r="K56" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11">
-      <c r="A57" s="1">
-        <v>55</v>
-      </c>
-      <c r="B57">
-        <v>91</v>
-      </c>
-      <c r="C57">
-        <v>280.1</v>
-      </c>
-      <c r="D57" t="s">
-        <v>65</v>
-      </c>
-      <c r="E57">
-        <v>253.4</v>
-      </c>
-      <c r="F57">
-        <v>360.2</v>
-      </c>
-      <c r="G57">
-        <v>253.4</v>
-      </c>
-      <c r="H57" t="s">
-        <v>112</v>
-      </c>
-      <c r="I57">
-        <v>-2618.264299999999</v>
-      </c>
-      <c r="J57">
-        <v>-10.27209395388616</v>
-      </c>
-      <c r="K57" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11">
-      <c r="A58" s="1">
-        <v>56</v>
-      </c>
-      <c r="B58">
-        <v>80</v>
-      </c>
-      <c r="C58">
-        <v>262.15</v>
-      </c>
-      <c r="D58" t="s">
-        <v>66</v>
-      </c>
-      <c r="E58">
-        <v>232.3</v>
-      </c>
-      <c r="F58">
-        <v>351.7</v>
-      </c>
-      <c r="G58">
-        <v>353</v>
-      </c>
-      <c r="H58" t="s">
-        <v>67</v>
-      </c>
-      <c r="I58">
-        <v>7114.252</v>
-      </c>
-      <c r="J58">
-        <v>33.92262063703986</v>
-      </c>
-      <c r="K58" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11">
-      <c r="A59" s="1">
-        <v>57</v>
-      </c>
-      <c r="B59">
-        <v>198</v>
-      </c>
-      <c r="C59">
-        <v>353.35</v>
-      </c>
-      <c r="D59" t="s">
-        <v>67</v>
-      </c>
-      <c r="E59">
-        <v>340.55</v>
-      </c>
-      <c r="F59">
-        <v>391.7</v>
-      </c>
-      <c r="G59">
-        <v>340.55</v>
-      </c>
-      <c r="H59" t="s">
-        <v>113</v>
-      </c>
-      <c r="I59">
-        <v>-3034.074299999978</v>
-      </c>
-      <c r="J59">
-        <v>-4.336665508916787</v>
-      </c>
-      <c r="K59" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11">
-      <c r="A60" s="1">
-        <v>58</v>
-      </c>
-      <c r="B60">
-        <v>104</v>
-      </c>
-      <c r="C60">
-        <v>357.55</v>
-      </c>
-      <c r="D60" t="s">
-        <v>68</v>
-      </c>
-      <c r="E60">
-        <v>333.75</v>
-      </c>
-      <c r="F60">
-        <v>428.95</v>
-      </c>
-      <c r="G60">
-        <v>333.75</v>
-      </c>
-      <c r="H60" t="s">
-        <v>114</v>
-      </c>
-      <c r="I60">
-        <v>-2745.546000000002</v>
-      </c>
-      <c r="J60">
-        <v>-7.383437496638452</v>
-      </c>
-      <c r="K60" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11">
-      <c r="A61" s="1">
-        <v>59</v>
-      </c>
-      <c r="B61">
-        <v>95</v>
-      </c>
-      <c r="C61">
-        <v>288.25</v>
-      </c>
-      <c r="D61" t="s">
-        <v>69</v>
-      </c>
-      <c r="E61">
-        <v>262.65</v>
-      </c>
-      <c r="F61">
-        <v>364.85</v>
-      </c>
-      <c r="G61">
-        <v>262.65</v>
-      </c>
-      <c r="H61" t="s">
-        <v>115</v>
-      </c>
-      <c r="I61">
-        <v>-2633.822249999994</v>
-      </c>
-      <c r="J61">
-        <v>-9.618194184507214</v>
-      </c>
-      <c r="K61" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11">
-      <c r="A62" s="1">
-        <v>60</v>
-      </c>
-      <c r="B62">
-        <v>62</v>
-      </c>
-      <c r="C62">
-        <v>282.1</v>
-      </c>
-      <c r="D62" t="s">
-        <v>70</v>
-      </c>
-      <c r="E62">
-        <v>244.3</v>
-      </c>
-      <c r="F62">
-        <v>395.45</v>
-      </c>
-      <c r="G62">
-        <v>244.3</v>
-      </c>
-      <c r="H62" t="s">
-        <v>116</v>
-      </c>
-      <c r="I62">
-        <v>-2476.344199999998</v>
-      </c>
-      <c r="J62">
-        <v>-14.15846702724953</v>
-      </c>
-      <c r="K62" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11">
-      <c r="A63" s="1">
-        <v>61</v>
-      </c>
-      <c r="B63">
-        <v>79</v>
-      </c>
-      <c r="C63">
-        <v>178.7</v>
-      </c>
-      <c r="D63" t="s">
-        <v>71</v>
-      </c>
-      <c r="E63">
-        <v>149.4</v>
-      </c>
-      <c r="F63">
-        <v>266.6</v>
-      </c>
-      <c r="G63">
-        <v>266.6</v>
-      </c>
-      <c r="H63" t="s">
-        <v>72</v>
-      </c>
-      <c r="I63">
-        <v>6833.239820000004</v>
-      </c>
-      <c r="J63">
-        <v>48.40330530625547</v>
-      </c>
-      <c r="K63" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11">
-      <c r="A64" s="1">
-        <v>62</v>
-      </c>
-      <c r="B64">
-        <v>241</v>
-      </c>
-      <c r="C64">
-        <v>264.05</v>
-      </c>
-      <c r="D64" t="s">
-        <v>72</v>
-      </c>
-      <c r="E64">
-        <v>253.8</v>
-      </c>
-      <c r="F64">
-        <v>294.65</v>
-      </c>
-      <c r="G64">
-        <v>253.8</v>
-      </c>
-      <c r="H64" t="s">
-        <v>117</v>
-      </c>
-      <c r="I64">
-        <v>-2925.761849999988</v>
-      </c>
-      <c r="J64">
-        <v>-4.597648424124356</v>
-      </c>
-      <c r="K64" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11">
-      <c r="A65" s="1">
-        <v>63</v>
-      </c>
-      <c r="B65">
-        <v>410</v>
-      </c>
-      <c r="C65">
-        <v>276.55</v>
-      </c>
-      <c r="D65" t="s">
-        <v>73</v>
-      </c>
-      <c r="E65">
-        <v>270.7</v>
-      </c>
-      <c r="F65">
-        <v>294.1</v>
-      </c>
-      <c r="G65">
-        <v>296</v>
-      </c>
-      <c r="H65" t="s">
-        <v>74</v>
-      </c>
-      <c r="I65">
-        <v>7246.940500000012</v>
-      </c>
-      <c r="J65">
-        <v>6.39141733290413</v>
-      </c>
-      <c r="K65" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11">
-      <c r="A66" s="1">
-        <v>64</v>
-      </c>
-      <c r="B66">
-        <v>247</v>
-      </c>
-      <c r="C66">
-        <v>296.25</v>
-      </c>
-      <c r="D66" t="s">
-        <v>74</v>
-      </c>
-      <c r="E66">
-        <v>285.95</v>
-      </c>
-      <c r="F66">
-        <v>327.1</v>
-      </c>
-      <c r="G66">
-        <v>285.95</v>
-      </c>
-      <c r="H66" t="s">
-        <v>118</v>
-      </c>
-      <c r="I66">
-        <v>-3066.228050000005</v>
-      </c>
-      <c r="J66">
-        <v>-4.190338816857145</v>
-      </c>
-      <c r="K66" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11">
-      <c r="A67" s="1">
-        <v>65</v>
-      </c>
-      <c r="B67">
-        <v>59</v>
-      </c>
-      <c r="C67">
-        <v>311.2</v>
-      </c>
-      <c r="D67" t="s">
-        <v>75</v>
-      </c>
-      <c r="E67">
-        <v>269.45</v>
-      </c>
-      <c r="F67">
-        <v>436.45</v>
-      </c>
-      <c r="G67">
-        <v>436.45</v>
-      </c>
-      <c r="H67" t="s">
-        <v>76</v>
-      </c>
-      <c r="I67">
-        <v>7252.045340000004</v>
-      </c>
-      <c r="J67">
-        <v>39.49743660406956</v>
-      </c>
-      <c r="K67" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11">
-      <c r="A68" s="1">
-        <v>66</v>
-      </c>
-      <c r="B68">
-        <v>33</v>
-      </c>
-      <c r="C68">
-        <v>434.05</v>
-      </c>
-      <c r="D68" t="s">
-        <v>76</v>
-      </c>
-      <c r="E68">
-        <v>354.7</v>
-      </c>
-      <c r="F68">
-        <v>671.95</v>
-      </c>
-      <c r="G68">
-        <v>671.95</v>
-      </c>
-      <c r="H68" t="s">
-        <v>77</v>
-      </c>
-      <c r="I68">
-        <v>7737.472530000006</v>
-      </c>
-      <c r="J68">
-        <v>54.01886062560874</v>
-      </c>
-      <c r="K68" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11">
-      <c r="A69" s="1">
-        <v>67</v>
-      </c>
-      <c r="B69">
-        <v>45</v>
-      </c>
-      <c r="C69">
-        <v>661.2</v>
-      </c>
-      <c r="D69" t="s">
-        <v>77</v>
-      </c>
-      <c r="E69">
-        <v>600.6</v>
-      </c>
-      <c r="F69">
-        <v>842.95</v>
-      </c>
-      <c r="G69">
-        <v>0</v>
-      </c>
-      <c r="H69" t="s">
-        <v>77</v>
-      </c>
-      <c r="I69">
-        <v>0</v>
-      </c>
-      <c r="J69">
-        <v>0</v>
-      </c>
-      <c r="K69" t="b">
         <v>1</v>
       </c>
     </row>
